--- a/biology/Botanique/Commission_régionale_de_la_forêt_et_du_bois/Commission_régionale_de_la_forêt_et_du_bois.xlsx
+++ b/biology/Botanique/Commission_régionale_de_la_forêt_et_du_bois/Commission_régionale_de_la_forêt_et_du_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commission_r%C3%A9gionale_de_la_for%C3%AAt_et_du_bois</t>
+          <t>Commission_régionale_de_la_forêt_et_du_bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Commission régionale de la forêt et du bois (CRFB) (qui se substitue en 2016/2017 à la commission régionale de la forêt et des produits forestiers) est en France une commission instituée par le Préfet de Région et le président du Conseil régional dans chaque région, dans le cadre de l'application de la loi no 2014-1170 du 13 octobre 2014 d'avenir pour l’agriculture, l'alimentation et la forêt, laquelle modifie la politique forestière et sa gouvernance.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Commission_r%C3%A9gionale_de_la_for%C3%AAt_et_du_bois</t>
+          <t>Commission_régionale_de_la_forêt_et_du_bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette commission est fixée par décret [1], au service d'un développement équilibré et durable de la filière forêt-bois considérée comme l'un des piliers de la « croissance verte française, et devra jouer un rôle essentiel dans les transitions climatiques, écologiques et énergétiques, notamment par la séquestration de carbone dans les forêts et le bois, et les gains d'émissions de GES liés à la substitution de bois à des matériaux et des énergies plus émetteurs »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette commission est fixée par décret , au service d'un développement équilibré et durable de la filière forêt-bois considérée comme l'un des piliers de la « croissance verte française, et devra jouer un rôle essentiel dans les transitions climatiques, écologiques et énergétiques, notamment par la séquestration de carbone dans les forêts et le bois, et les gains d'émissions de GES liés à la substitution de bois à des matériaux et des énergies plus émetteurs ».
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Commission_r%C3%A9gionale_de_la_for%C3%AAt_et_du_bois</t>
+          <t>Commission_régionale_de_la_forêt_et_du_bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce comité a plusieurs missions liée à la gouvernance des ressources naturelles forestières, dont :
 élaborer le Programme régional de la forêt et du bois (PRFB) ;
